--- a/eform-client/cypress/fixtures/2021-11-18T00_00_00.000Z_2021-11-18T00_00_00.000Z_report.xlsx
+++ b/eform-client/cypress/fixtures/2021-11-18T00_00_00.000Z_2021-11-18T00_00_00.000Z_report.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="19 - 03. Control floating laye" sheetId="2" r:id="rId2"/>
-    <x:sheet name="23 - 04. Feeding documentation" sheetId="3" r:id="rId3"/>
+    <x:sheet name="19 - 03. Kontrol flydelag" sheetId="2" r:id="rId2"/>
+    <x:sheet name="23 - 04. Foderindlægssedler" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -20,40 +20,40 @@
     <x:t>Id</x:t>
   </x:si>
   <x:si>
-    <x:t>Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Created At</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Done By</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Item name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Floating layer OK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select reason for lack of floating layer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tjørntved</x:t>
+    <x:t>Ejendom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dato</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Udført af</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Område</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flydelag OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vælg årsag til manglende flydelag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kommentar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farm 1</x:t>
   </x:si>
   <x:si>
     <x:t>Kristian Poulsen</x:t>
   </x:si>
   <x:si>
-    <x:t>G1: Floating layer</x:t>
+    <x:t>G1: Flydelag</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>G2: Floating layer</x:t>
+    <x:t>G2: Flydelag</x:t>
   </x:si>
   <x:si>
     <x:t>Biskopstorp</x:t>
@@ -62,10 +62,10 @@
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>Slurry tank empty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>G3: Floating layer</x:t>
+    <x:t>Beholder tom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>G3: Flydelag</x:t>
   </x:si>
   <x:si>
     <x:t>Mineraler</x:t>

--- a/eform-client/cypress/fixtures/2021-11-18T00_00_00.000Z_2021-11-18T00_00_00.000Z_report.xlsx
+++ b/eform-client/cypress/fixtures/2021-11-18T00_00_00.000Z_2021-11-18T00_00_00.000Z_report.xlsx
@@ -23,7 +23,7 @@
     <x:t>Ejendom</x:t>
   </x:si>
   <x:si>
-    <x:t>Dato</x:t>
+    <x:t>Indsendt dato</x:t>
   </x:si>
   <x:si>
     <x:t>Udført af</x:t>

--- a/eform-client/cypress/fixtures/2021-11-18T00_00_00.000Z_2021-11-18T00_00_00.000Z_report.xlsx
+++ b/eform-client/cypress/fixtures/2021-11-18T00_00_00.000Z_2021-11-18T00_00_00.000Z_report.xlsx
@@ -9,7 +9,10 @@
     <x:sheet name="19 - 03. Kontrol flydelag" sheetId="2" r:id="rId2"/>
     <x:sheet name="23 - 04. Foderindlægssedler" sheetId="3" r:id="rId3"/>
   </x:sheets>
-  <x:definedNames/>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'19 - 03. Kontrol flydelag'!$A$1:$H$6</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23 - 04. Foderindlægssedler'!$A$1:$F$2</x:definedName>
+  </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
@@ -57,9 +60,6 @@
   </x:si>
   <x:si>
     <x:t>Biskopstorp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
   </x:si>
   <x:si>
     <x:t>Beholder tom</x:t>
@@ -549,11 +549,11 @@
       <x:c r="E4" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F4" s="3" t="s">
+      <x:c r="F4" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G4" s="3" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="G4" s="3" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="H4" s="3" t="s">
         <x:v>11</x:v>
@@ -575,11 +575,11 @@
       <x:c r="E5" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F5" s="3" t="s">
+      <x:c r="F5" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G5" s="3" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="G5" s="3" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
         <x:v>11</x:v>
@@ -599,7 +599,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F6" s="0">
         <x:v>1</x:v>
@@ -612,6 +612,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:autoFilter ref="A1:H6"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -665,13 +666,14 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F2" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:autoFilter ref="A1:F2"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/eform-client/cypress/fixtures/2021-11-18T00_00_00.000Z_2021-11-18T00_00_00.000Z_report.xlsx
+++ b/eform-client/cypress/fixtures/2021-11-18T00_00_00.000Z_2021-11-18T00_00_00.000Z_report.xlsx
@@ -2,22 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="19 - 03. Kontrol flydelag" sheetId="1" r:id="Rd9bba5c8a9544de9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="23 - 04. Foderindlægssedler" sheetId="2" r:id="Rd83279119c884279"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="19 - 03. Kontrol flydelag" sheetId="1" r:id="R0e5d6687dc994f41"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="23 - 04. Foderindlægssedler" sheetId="2" r:id="Ra7ece83fcb9944fe"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts>
+    <x:numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+  </x:numFmts>
   <x:fonts>
     <x:font>
       <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
     </x:font>
   </x:fonts>
@@ -30,88 +35,64 @@
     </x:fill>
   </x:fills>
   <x:borders>
-    <x:border/>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
+  <x:cellStyleXfs>
+    <x:xf/>
+  </x:cellStyleXfs>
   <x:cellXfs>
     <x:xf/>
     <x:xf fontId="1" applyFont="1"/>
+    <x:xf numFmtId="164" applyNumberFormat="1"/>
+    <x:xf numFmtId="22" applyNumberFormat="1"/>
   </x:cellXfs>
-  <x:numFmts>
-    <x:numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-  </x:numFmts>
 </x:styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1000" name="Table1" displayName="Table1" ref="A1:H6">
-  <x:autoFilter ref="A1:H6"/>
-  <x:tableColumns count="8">
-    <x:tableColumn id="1" name="Column1"/>
-    <x:tableColumn id="2" name="Column2"/>
-    <x:tableColumn id="3" name="Column3"/>
-    <x:tableColumn id="4" name="Column4"/>
-    <x:tableColumn id="5" name="Column5"/>
-    <x:tableColumn id="6" name="Column6"/>
-    <x:tableColumn id="7" name="Column7"/>
-    <x:tableColumn id="8" name="Column8"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9303" name="Table1" displayName="Table1" ref="A1:F2">
-  <x:autoFilter ref="A1:F2"/>
-  <x:tableColumns count="6">
-    <x:tableColumn id="1" name="Column1"/>
-    <x:tableColumn id="2" name="Column2"/>
-    <x:tableColumn id="3" name="Column3"/>
-    <x:tableColumn id="4" name="Column4"/>
-    <x:tableColumn id="5" name="Column5"/>
-    <x:tableColumn id="6" name="Column6"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
     <x:row>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Id</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Ejendom</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Indsendt dato</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Udført af</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Område</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Flydelag OK</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Vælg årsag til manglende flydelag</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Kommentar</x:v>
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>83</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.11.2021 09.18.36</x:v>
+      <x:c s="2" t="n">
+        <x:v>44518.38791666667</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -130,14 +111,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>85</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.11.2021 09.19.45</x:v>
+      <x:c s="2" t="n">
+        <x:v>44518.388715277775</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -156,14 +137,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Biskopstorp</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.11.2021 10.37.06</x:v>
+      <x:c s="2" t="n">
+        <x:v>44518.44243055556</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -182,14 +163,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>90</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Biskopstorp</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.11.2021 10.37.21</x:v>
+      <x:c s="2" t="n">
+        <x:v>44518.44260416667</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -208,14 +189,14 @@
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>93</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Biskopstorp</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.11.2021 10.38.27</x:v>
+      <x:c s="2" t="n">
+        <x:v>44518.44336805555</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -234,7 +215,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:H6"/>
 </x:worksheet>
 </file>
 
@@ -242,34 +222,34 @@
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData>
     <x:row>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Id</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Ejendom</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Indsendt dato</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Udført af</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Område</x:v>
       </x:c>
-      <x:c s="1" t="str">
+      <x:c t="str">
         <x:v>Kommentar</x:v>
       </x:c>
     </x:row>
     <x:row>
-      <x:c t="str">
+      <x:c t="n">
         <x:v>54</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Farm 1</x:v>
       </x:c>
-      <x:c t="str">
-        <x:v>18.11.2021 09.15.16</x:v>
+      <x:c s="2" t="n">
+        <x:v>44518.38560185185</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Kristian Poulsen</x:v>
@@ -282,6 +262,5 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:F2"/>
 </x:worksheet>
 </file>